--- a/统计文档/嵌入统计2.xlsx
+++ b/统计文档/嵌入统计2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\tsp\统计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89BB72C-1EB7-421C-8446-CF6D5F1D42F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85476F49-B968-4AE7-8624-B1BC5ADF18B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -572,6 +572,23 @@
       </c>
       <c r="E11">
         <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +602,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -802,10 +819,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D540959-9845-49B2-91E5-5178FB6AFD1F}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1004,6 +1021,32 @@
       <c r="B12">
         <v>27</v>
       </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/统计文档/嵌入统计2.xlsx
+++ b/统计文档/嵌入统计2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\tsp\统计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85476F49-B968-4AE7-8624-B1BC5ADF18B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB3CEAD-CE5A-4838-91C9-C80BFA9980FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chimera" sheetId="1" r:id="rId1"/>
     <sheet name="pegasus" sheetId="2" r:id="rId2"/>
     <sheet name="zephyr" sheetId="3" r:id="rId3"/>
+    <sheet name="LKH执行时间" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -379,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -589,6 +590,91 @@
       </c>
       <c r="E12">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>107</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>118</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>137</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>157</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -599,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34D099E-ADF4-4F74-B0BD-DC4F5544C9CA}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -809,6 +895,57 @@
       </c>
       <c r="E12">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>82</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -821,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D540959-9845-49B2-91E5-5178FB6AFD1F}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1052,4 +1189,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADE9A01-64F8-4CA2-A6A2-FE95C7B76F4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>